--- a/Output/past_book.xlsx
+++ b/Output/past_book.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,120 +434,120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>2023</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -609,88 +588,93 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.3076923076923077</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.358974358974359</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.3611111111111111</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.40625</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>0.4722222222222222</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.36</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.3658536585365854</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.3125</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.2058823529411765</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2045454545454546</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.26</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.3125</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.3421052631578947</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.5306122448979592</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -708,1116 +692,1169 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.98</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.9787234042553191</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.9622641509433962</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.9591836734693877</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.8787878787878788</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.6521739130434783</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>0.4107142857142857</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>0.3043478260869565</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.2407407407407407</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0.3061224489795918</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.3777777777777778</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>0.3061224489795918</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0.3265306122448979</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1951219512195122</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.3255813953488372</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.2978723404255319</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.2884615384615384</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.2093023255813954</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.2368421052631579</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.2413793103448276</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.2</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.5660377358490566</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.4909090909090909</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.509090909090909</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.5384615384615384</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.3488372093023256</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.3877551020408163</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.3269230769230769</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>0.3863636363636364</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.3404255319148936</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>0.4090909090909091</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>0.3829787234042553</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.42</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0.4375</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.24</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.1590909090909091</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.2142857142857143</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3137254901960784</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.3518518518518519</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.4074074074074074</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.3414634146341464</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.4</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.4102564102564102</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.4146341463414634</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.4339622641509434</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.4807692307692308</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.4047619047619048</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.375</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.3928571428571428</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.3653846153846154</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.3035714285714285</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.2244897959183673</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>0.3478260869565217</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>0.3658536585365854</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>0.4324324324324325</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.3658536585365854</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0.4130434782608696</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.4509803921568628</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>0.5128205128205128</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.4782608695652174</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.282051282051282</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.4651162790697674</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.2653061224489796</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.4347826086956522</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.4146341463414634</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.3823529411764706</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.3414634146341464</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.3953488372093023</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.4081632653061225</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.38</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.4883720930232558</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.3</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>0.3023255813953488</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.3783783783783784</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>0.4375</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>0.4489795918367347</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>0.375</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.3243243243243243</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>0.34375</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3404255319148936</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3265306122448979</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.4901960784313725</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.4814814814814815</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.3833333333333334</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.375</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.3947368421052632</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.375</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.3225806451612903</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.3076923076923077</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.3043478260869565</v>
       </c>
       <c r="T7" t="n">
         <v>0.3043478260869565</v>
       </c>
       <c r="U7" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>0.24</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>0.28</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>0.3207547169811321</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.375</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.3214285714285715</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.2439024390243902</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.186046511627907</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.2424242424242424</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.3478260869565217</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.36</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.2954545454545455</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.2173913043478261</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.2244897959183673</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.3695652173913043</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.3714285714285714</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.28125</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>0.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>0.2195121951219512</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>0.2045454545454546</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.2162162162162162</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0.1914893617021277</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.1944444444444444</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>0.1785714285714286</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>0.2058823529411765</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2448979591836735</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2413793103448276</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2432432432432433</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.1714285714285714</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.2972972972972973</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.25</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.2156862745098039</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.25</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.2115384615384615</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.163265306122449</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.2115384615384615</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.2424242424242424</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.2692307692307692</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.3</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.3191489361702128</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>0.2586206896551724</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>0.25</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>0.26</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.282051282051282</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.2619047619047619</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0.3043478260869565</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.3962264150943396</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.32</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>0.3396226415094339</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.85</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.625</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7647058823529411</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.6818181818181818</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.8913043478260869</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.7608695652173914</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.6176470588235294</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.59375</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.4</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.5192307692307693</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.6346153846153846</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.660377358490566</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.8043478260869565</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.5384615384615384</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.5909090909090909</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.64</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.7962962962962963</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>0.8363636363636363</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>0.8148148148148148</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>0.72</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.5675675675675675</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.7547169811320755</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0.8</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.96</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.7169811320754716</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.58</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.6111111111111112</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.5384615384615384</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.5348837209302325</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.4857142857142857</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.4871794871794872</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.4418604651162791</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.4888888888888889</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.4716981132075472</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.38</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.3823529411764706</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0.2413793103448276</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.3714285714285714</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.293103448275862</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.2830188679245283</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.3050847457627119</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>0.225</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.1627906976744186</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.0975609756097561</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>0.0851063829787234</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>0.2173913043478261</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.2325581395348837</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>0.2702702702702703</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.3225806451612903</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>0.2391304347826087</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C12" t="n">
         <v>12</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.24</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.36</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.375</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.4230769230769231</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.5161290322580645</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.4042553191489361</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.425531914893617</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.282051282051282</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.2368421052631579</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.3125</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.4137931034482759</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.55</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>0.3125</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>2024</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.2592592592592592</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.4</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.40625</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.3793103448275862</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.2692307692307692</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.3823529411764706</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.4</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.3225806451612903</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>0.4</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>0.4137931034482759</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>0.6</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.2692307692307692</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.44</v>
-      </c>
       <c r="J14" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.4</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.4146341463414634</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.4081632653061225</v>
-      </c>
       <c r="T14" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.42</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1847,14 +1884,13 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>